--- a/variables.xlsx
+++ b/variables.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jai\Documents\GitHub\MDOHPCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5894A6B-D9BA-4113-A24E-BD80555A6923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B06954-C140-453D-A8C4-6B5F567330F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>variable name</t>
   </si>
@@ -70,6 +70,21 @@
   </si>
   <si>
     <t>initial</t>
+  </si>
+  <si>
+    <t>n_passengers</t>
+  </si>
+  <si>
+    <t>capacity</t>
+  </si>
+  <si>
+    <t>nm</t>
+  </si>
+  <si>
+    <t>range_nm</t>
+  </si>
+  <si>
+    <t>range in nm</t>
   </si>
 </sst>
 </file>
@@ -93,18 +108,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -128,11 +137,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,7 +474,12 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="3"/>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -481,7 +494,49 @@
       <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="3"/>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>232</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <v>4500</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/variables.xlsx
+++ b/variables.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jai\Documents\GitHub\MDOHPCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B06954-C140-453D-A8C4-6B5F567330F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06012356-5089-4CB6-9CB3-6EE50F677DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>variable name</t>
   </si>
@@ -51,9 +51,6 @@
     <t>rho</t>
   </si>
   <si>
-    <t>air desity</t>
-  </si>
-  <si>
     <t>kg/m^3</t>
   </si>
   <si>
@@ -85,6 +82,18 @@
   </si>
   <si>
     <t>range in nm</t>
+  </si>
+  <si>
+    <t>range in km</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>km</t>
+  </si>
+  <si>
+    <t>air density</t>
   </si>
 </sst>
 </file>
@@ -421,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,19 +455,19 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -486,13 +495,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C3">
         <v>1.288</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H3" t="b">
         <v>1</v>
@@ -503,10 +512,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
         <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
       </c>
       <c r="C4">
         <v>232</v>
@@ -520,21 +529,42 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
         <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
       </c>
       <c r="C5">
         <v>4500</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <f>C5*1.852</f>
+        <v>8334</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" t="b">
         <v>1</v>
       </c>
     </row>
